--- a/docs/data/roster.xlsx
+++ b/docs/data/roster.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\BBS\webpage\home\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schaej17\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="2020 Roster" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2020 Roster'!$A$1:$T$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2020 Roster'!$A$1:$T$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>Kaspar</t>
   </si>
@@ -107,12 +107,6 @@
     <t>Moffa</t>
   </si>
   <si>
-    <t>Amanda</t>
-  </si>
-  <si>
-    <t>Ross</t>
-  </si>
-  <si>
     <t>Juliane</t>
   </si>
   <si>
@@ -131,12 +125,6 @@
     <t>Verweij</t>
   </si>
   <si>
-    <t>Simon</t>
-  </si>
-  <si>
-    <t>Wandel</t>
-  </si>
-  <si>
     <t>Hans Ulrich</t>
   </si>
   <si>
@@ -158,9 +146,6 @@
     <t>achim.guettner@novartis.com</t>
   </si>
   <si>
-    <t>amanda.ross@unibas.ch</t>
-  </si>
-  <si>
     <t>Swiss Tropical and Public Health Institute</t>
   </si>
   <si>
@@ -194,9 +179,6 @@
     <t>bibiana.blatna@novartis.com</t>
   </si>
   <si>
-    <t>dominik.heinzmann@roche.com</t>
-  </si>
-  <si>
     <t>fbrsorenson@googlemail.com</t>
   </si>
   <si>
@@ -224,9 +206,6 @@
     <t>roland.marion-gallois@bms.com</t>
   </si>
   <si>
-    <t>simon.wandel@novartis.com</t>
-  </si>
-  <si>
     <t>Olympia</t>
   </si>
   <si>
@@ -243,16 +222,48 @@
   </si>
   <si>
     <t>Function</t>
+  </si>
+  <si>
+    <t>Novo Nordisk</t>
+  </si>
+  <si>
+    <t>DMHM@novonordisk.com</t>
+  </si>
+  <si>
+    <t>Tracy</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>tracy.glass@swisstph.ch</t>
+  </si>
+  <si>
+    <t>Hennessy</t>
+  </si>
+  <si>
+    <t>bhennes4@its.jnj.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -275,10 +286,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -289,8 +301,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -604,31 +620,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="101.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="101.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="20" width="101.5703125" style="3"/>
-    <col min="21" max="16384" width="101.5703125" style="1"/>
+    <col min="1" max="1" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="20" width="101.54296875" style="3"/>
+    <col min="21" max="16384" width="101.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -637,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -654,333 +670,334 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="D19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:T39">
@@ -988,10 +1005,12 @@
     <sortCondition ref="A2:A39"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1"/>
-    <hyperlink ref="D19" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D17" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D19" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>